--- a/Emissao/Dados_Emissao/Original/Aline_Regina_Diogo_Gonzaga.xlsx
+++ b/Emissao/Dados_Emissao/Original/Aline_Regina_Diogo_Gonzaga.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="146">
   <si>
     <t>Cia</t>
   </si>
@@ -71,10 +71,10 @@
     <t>531</t>
   </si>
   <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>3397</t>
+    <t>990</t>
+  </si>
+  <si>
+    <t>111126</t>
   </si>
   <si>
     <t>1</t>
@@ -83,424 +83,238 @@
     <t>0</t>
   </si>
   <si>
-    <t>De: 04/10/2024 a 04/10/2025</t>
-  </si>
-  <si>
-    <t>ECOCOLLOR REVESTIMENTOS E DECORACAO LTDA</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
+    <t>De: 30/10/2024 a 30/10/2025</t>
+  </si>
+  <si>
+    <t>NILTON FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>R$ 2.601,86</t>
+  </si>
+  <si>
+    <t>R$ 2.793,87</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
+  </si>
+  <si>
+    <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
+  </si>
+  <si>
+    <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
+  </si>
+  <si>
+    <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
+  </si>
+  <si>
+    <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+  </si>
+  <si>
+    <t>490020 - ALBA ANDRADE CORRETORA DE SEGURO</t>
+  </si>
+  <si>
+    <t>404093 - AMPARATO CORRETORA DE SEGUROS LT</t>
+  </si>
+  <si>
+    <t>501944 - BARUCH CORR E ADM DE SEGUROS EIR</t>
+  </si>
+  <si>
+    <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
+  </si>
+  <si>
+    <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>402229 - CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
+  </si>
+  <si>
+    <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
+  </si>
+  <si>
+    <t>436604 - COSTA VALE CORR</t>
+  </si>
+  <si>
+    <t>444489 - E A M ROSA CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>495291 - ELECT CORRETORA DE SEG E CONSULT</t>
+  </si>
+  <si>
+    <t>400552 - ELIANA DE PAULA TINOCO</t>
+  </si>
+  <si>
+    <t>401292 - FACILIT CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>404395 - FAMILIA CASTELLO CORR DE SEG LTD</t>
+  </si>
+  <si>
+    <t>524248 - FORTIS CORRETORA DE SEGUROS E IN</t>
+  </si>
+  <si>
+    <t>400048 - FRANCISCO VICENTE LEMES DE PAIVA</t>
+  </si>
+  <si>
+    <t>509062 - FS ACERTO CONSULT E CORR DE SEGU</t>
+  </si>
+  <si>
+    <t>421702 - GAMARRA CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>18581</t>
+  </si>
+  <si>
+    <t>De: 10/11/2024 a 10/11/2025</t>
+  </si>
+  <si>
+    <t>ESMERALDO P GONCALVES</t>
+  </si>
+  <si>
+    <t>R$ 286,26</t>
+  </si>
+  <si>
+    <t>R$ 307,38</t>
+  </si>
+  <si>
+    <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
+  </si>
+  <si>
+    <t>111124</t>
+  </si>
+  <si>
+    <t>De: 28/10/2024 a 28/10/2025</t>
+  </si>
+  <si>
+    <t>JOSE HILTON SILVA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>R$ 2.909,88</t>
+  </si>
+  <si>
+    <t>R$ 3.124,62</t>
+  </si>
+  <si>
+    <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>505987 - LA OSSA CORRETORA DE SEGUROS LTD</t>
+  </si>
+  <si>
+    <t>111150</t>
+  </si>
+  <si>
+    <t>De: 27/10/2024 a 27/10/2025</t>
+  </si>
+  <si>
+    <t>F C DA SILVA FARIA LOCACOES</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>R$ 54.387,39</t>
+  </si>
+  <si>
+    <t>R$ 58.401,17</t>
+  </si>
+  <si>
+    <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
+  </si>
+  <si>
+    <t>R$ 5.460,96</t>
+  </si>
+  <si>
+    <t>R$ 5.863,86</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>R$ 3.536,84</t>
+  </si>
+  <si>
+    <t>R$ 3.797,90</t>
+  </si>
+  <si>
+    <t>R$ 5.863,97</t>
+  </si>
+  <si>
+    <t>R$ 3.797,85</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R$ 4.606,56</t>
+  </si>
+  <si>
+    <t>R$ 4.946,51</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>R$ 3.512,46</t>
-  </si>
-  <si>
-    <t>R$ 3.771,66</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-  </si>
-  <si>
-    <t>944 - SAO JOSE DOS CAMPOS MERCADO</t>
-  </si>
-  <si>
-    <t>342.581.618-70 - Aline Regina Diogo Gonzaga</t>
-  </si>
-  <si>
-    <t>505404 - A L CORR DE SEGS SOC UNIPESSOAL</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>18065</t>
-  </si>
-  <si>
-    <t>De: 01/10/2024 a 01/10/2025</t>
-  </si>
-  <si>
-    <t>PRISCILA DE OLIVEIRA LIMA PALMA</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R$ 397,31</t>
-  </si>
-  <si>
-    <t>R$ 426,62</t>
-  </si>
-  <si>
-    <t>18098</t>
-  </si>
-  <si>
-    <t>De: 03/10/2024 a 03/10/2025</t>
-  </si>
-  <si>
-    <t>JOAO ALVES PIRES</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 131,33</t>
-  </si>
-  <si>
-    <t>R$ 141,01</t>
-  </si>
-  <si>
-    <t>18118</t>
-  </si>
-  <si>
-    <t>ALISON INACIO DA SILVA</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 276,08</t>
-  </si>
-  <si>
-    <t>R$ 296,44</t>
-  </si>
-  <si>
-    <t>18150</t>
-  </si>
-  <si>
-    <t>De: 08/10/2024 a 08/10/2025</t>
-  </si>
-  <si>
-    <t>MARCO AURELIO DE SOUZA DIAS</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>R$ 313,47</t>
-  </si>
-  <si>
-    <t>R$ 336,57</t>
-  </si>
-  <si>
-    <t>18185</t>
-  </si>
-  <si>
-    <t>De: 11/10/2024 a 11/10/2025</t>
-  </si>
-  <si>
-    <t>ARTUR JOSE PRADO LEITE</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 268,30</t>
-  </si>
-  <si>
-    <t>R$ 288,08</t>
-  </si>
-  <si>
-    <t>403436 - A R MAGALHAES &amp; FILHOS CORR SEGS</t>
-  </si>
-  <si>
-    <t>490020 - ALBA ANDRADE CORRETORA DE SEGURO</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>110097</t>
-  </si>
-  <si>
-    <t>De: 09/09/2024 a 09/09/2025</t>
-  </si>
-  <si>
-    <t>SULAMITA DE FATIMA EVANGELISTA HENRIQUE</t>
-  </si>
-  <si>
-    <t>R$ 2.110,36</t>
-  </si>
-  <si>
-    <t>R$ 2.266,10</t>
-  </si>
-  <si>
-    <t>404093 - AMPARATO CORRETORA DE SEGUROS LT</t>
-  </si>
-  <si>
-    <t>501944 - BARUCH CORR E ADM DE SEGUROS EIR</t>
-  </si>
-  <si>
-    <t>18206</t>
-  </si>
-  <si>
-    <t>De: 09/10/2024 a 09/10/2025</t>
-  </si>
-  <si>
-    <t>GIOVANNI FURQUIM RIBEIRO</t>
-  </si>
-  <si>
-    <t>R$ 520,14</t>
-  </si>
-  <si>
-    <t>R$ 558,48</t>
-  </si>
-  <si>
-    <t>445350 - BASSI DOMENICONI CORRETORA DE SE</t>
-  </si>
-  <si>
-    <t>110089</t>
-  </si>
-  <si>
-    <t>ANA PAULA BUENO</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>R$ 2.277,52</t>
-  </si>
-  <si>
-    <t>R$ 2.445,60</t>
-  </si>
-  <si>
-    <t>18100</t>
-  </si>
-  <si>
-    <t>LUCIANA OLIVEIRA ROCHA MEM</t>
-  </si>
-  <si>
-    <t>R$ 420,89</t>
-  </si>
-  <si>
-    <t>R$ 451,93</t>
-  </si>
-  <si>
-    <t>404503 - BENAIA CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>402229 - CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
-  </si>
-  <si>
-    <t>18067</t>
-  </si>
-  <si>
-    <t>De: 06/10/2024 a 06/10/2025</t>
-  </si>
-  <si>
-    <t>SHIRLEY CASSIANO LEITE</t>
+    <t>R$ 3.434,59</t>
+  </si>
+  <si>
+    <t>R$ 3.688,05</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>R$ 3.244,66</t>
+  </si>
+  <si>
+    <t>R$ 3.484,11</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>R$ 289,91</t>
-  </si>
-  <si>
-    <t>R$ 311,27</t>
-  </si>
-  <si>
-    <t>486565 - CL CONFIDENCE CORRETORA DE SEGS</t>
-  </si>
-  <si>
-    <t>18113</t>
-  </si>
-  <si>
-    <t>ROSAURA MARILEY VILAS BOAS MORAES</t>
-  </si>
-  <si>
-    <t>R$ 433,61</t>
-  </si>
-  <si>
-    <t>R$ 465,54</t>
-  </si>
-  <si>
-    <t>110090</t>
-  </si>
-  <si>
-    <t>De: 26/09/2024 a 26/09/2025</t>
-  </si>
-  <si>
-    <t>ROGERIO FRANCISCO DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 1.997,02</t>
-  </si>
-  <si>
-    <t>R$ 2.144,40</t>
-  </si>
-  <si>
-    <t>110165</t>
-  </si>
-  <si>
-    <t>De: 23/09/2024 a 23/09/2025</t>
-  </si>
-  <si>
-    <t>MMC ESQUADRIAS DE ALUMINIO LTDA ME</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>R$ 6.663,61</t>
-  </si>
-  <si>
-    <t>R$ 7.155,38</t>
-  </si>
-  <si>
-    <t>436604 - COSTA VALE CORR</t>
-  </si>
-  <si>
-    <t>110248</t>
-  </si>
-  <si>
-    <t>De: 07/10/2024 a 07/10/2025</t>
-  </si>
-  <si>
-    <t>WILSON DE OLIVEIRA ROSA JUNIOR</t>
+    <t>R$ 5.442,64</t>
+  </si>
+  <si>
+    <t>R$ 5.844,36</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R$ 5.002,59</t>
+  </si>
+  <si>
+    <t>R$ 5.371,77</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>R$ 3.137,71</t>
-  </si>
-  <si>
-    <t>R$ 3.369,27</t>
-  </si>
-  <si>
-    <t>444489 - E A M ROSA CORRETORA DE SEGUROS</t>
-  </si>
-  <si>
-    <t>495291 - ELECT CORRETORA DE SEG E CONSULT</t>
-  </si>
-  <si>
-    <t>110185</t>
-  </si>
-  <si>
-    <t>CLAUDIO CARVALHO DA SILVA</t>
-  </si>
-  <si>
-    <t>R$ 1.634,35</t>
-  </si>
-  <si>
-    <t>R$ 1.754,96</t>
-  </si>
-  <si>
-    <t>400552 - ELIANA DE PAULA TINOCO</t>
-  </si>
-  <si>
-    <t>401292 - FACILIT CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>404395 - FAMILIA CASTELLO CORR DE SEG LTD</t>
-  </si>
-  <si>
-    <t>524248 - FORTIS CORRETORA DE SEGUROS E IN</t>
-  </si>
-  <si>
-    <t>3410</t>
-  </si>
-  <si>
-    <t>INSTITUTO RAIZES DO VALE</t>
-  </si>
-  <si>
-    <t>R$ 1.244,79</t>
-  </si>
-  <si>
-    <t>R$ 1.336,65</t>
-  </si>
-  <si>
-    <t>400048 - FRANCISCO VICENTE LEMES DE PAIVA</t>
-  </si>
-  <si>
-    <t>110029</t>
-  </si>
-  <si>
-    <t>De: 13/09/2024 a 13/09/2025</t>
-  </si>
-  <si>
-    <t>FLAVIA MAQUIA LANDIN</t>
-  </si>
-  <si>
-    <t>R$ 2.943,04</t>
-  </si>
-  <si>
-    <t>R$ 3.160,23</t>
-  </si>
-  <si>
-    <t>509062 - FS ACERTO CONSULT E CORR DE SEGU</t>
-  </si>
-  <si>
-    <t>421702 - GAMARRA CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>110034</t>
-  </si>
-  <si>
-    <t>De: 30/09/2024 a 30/09/2025</t>
-  </si>
-  <si>
-    <t>LUIS GONZAGA IRINEU DA SILVA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R$ 1.242,95</t>
-  </si>
-  <si>
-    <t>R$ 1.334,67</t>
-  </si>
-  <si>
-    <t>481920 - GF INVEST SEGURO CORR DE SEG LTD</t>
-  </si>
-  <si>
-    <t>404640 - IMS CORRETORA DE SEGUROS LTDA</t>
-  </si>
-  <si>
-    <t>505987 - LA OSSA CORRETORA DE SEGUROS LTD</t>
-  </si>
-  <si>
-    <t>18119</t>
-  </si>
-  <si>
-    <t>ARTHUR DE FREITAS MOREIRA</t>
-  </si>
-  <si>
-    <t>R$ 300,05</t>
-  </si>
-  <si>
-    <t>R$ 322,13</t>
-  </si>
-  <si>
-    <t>497004 - LCA SEG CORRETORA DE SEGUROS EIR</t>
-  </si>
-  <si>
-    <t>110162</t>
-  </si>
-  <si>
-    <t>JOSE MARCOS BARBOSA DA SILVEIRA</t>
-  </si>
-  <si>
-    <t>R$ 1.593,48</t>
-  </si>
-  <si>
-    <t>R$ 1.711,07</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>R$ 4.197,20</t>
+  </si>
+  <si>
+    <t>R$ 4.507,05</t>
   </si>
   <si>
     <t>480434 - MACEDO MARCONDES ADM E CORR DE S</t>
@@ -518,18 +332,6 @@
     <t>404241 - PAPARELE CORR DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>18075</t>
-  </si>
-  <si>
-    <t>JEAN MICHEL DENIS RAYMOND NORDEMANN</t>
-  </si>
-  <si>
-    <t>R$ 662,73</t>
-  </si>
-  <si>
-    <t>R$ 711,61</t>
-  </si>
-  <si>
     <t>479506 - PATRICIA AUGUSTA DE ARAUJO</t>
   </si>
   <si>
@@ -545,81 +347,21 @@
     <t>498234 - PORTO BR CORRERTORA DE SEGUROS L</t>
   </si>
   <si>
-    <t>110124</t>
-  </si>
-  <si>
-    <t>De: 18/10/2024 a 18/10/2025</t>
-  </si>
-  <si>
-    <t>PAULA NATALIA BISCUOLA</t>
-  </si>
-  <si>
-    <t>R$ 2.496,20</t>
-  </si>
-  <si>
-    <t>R$ 2.680,41</t>
-  </si>
-  <si>
     <t>402591 - PR CORREA LIMA COR SEG SC LT</t>
   </si>
   <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>1843</t>
-  </si>
-  <si>
-    <t>PRESERVE ENGENHARIA ELETRICA</t>
-  </si>
-  <si>
-    <t>R$ 5.449,38</t>
-  </si>
-  <si>
-    <t>R$ 5.851,50</t>
-  </si>
-  <si>
     <t>487985 - RAFAEL FREIRE MUNIZ BARRETO SEGS</t>
   </si>
   <si>
     <t>401244 - RICARDO LINHARES MACHADO DA SILV</t>
   </si>
   <si>
-    <t>110137</t>
-  </si>
-  <si>
-    <t>De: 02/10/2024 a 02/10/2025</t>
-  </si>
-  <si>
-    <t>ERIKA ESCOBAR DE SOUSA</t>
-  </si>
-  <si>
-    <t>R$ 4.521,33</t>
-  </si>
-  <si>
-    <t>R$ 4.855,00</t>
-  </si>
-  <si>
     <t>482713 - ROSATI CORRETORA DE SEGUROS EIRE</t>
   </si>
   <si>
     <t>439165 - RSP CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>110136</t>
-  </si>
-  <si>
-    <t>ADERBAL DIAS DERMENJIAN</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>R$ 6.849,73</t>
-  </si>
-  <si>
-    <t>R$ 7.355,24</t>
-  </si>
-  <si>
     <t>401895 - SEGNET CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
@@ -632,142 +374,79 @@
     <t>400201 - SILVIO RODRIGUES SILVA</t>
   </si>
   <si>
-    <t>14169</t>
-  </si>
-  <si>
-    <t>De: 20/01/2024 a 20/01/2025</t>
-  </si>
-  <si>
-    <t>ALINE DOS SANTOS ROMEIRO</t>
-  </si>
-  <si>
-    <t>R$ 193,77</t>
-  </si>
-  <si>
-    <t>R$ 208,05</t>
+    <t>18567</t>
+  </si>
+  <si>
+    <t>De: 01/11/2024 a 01/11/2025</t>
+  </si>
+  <si>
+    <t>VANESSA SOUZA PORTILHO BOLANHO DA ROSA</t>
+  </si>
+  <si>
+    <t>R$ 480,49</t>
+  </si>
+  <si>
+    <t>R$ 515,93</t>
   </si>
   <si>
     <t>482711 - SOUSA DIAS ADM E CORR DE SEGUROS</t>
   </si>
   <si>
-    <t>110176</t>
-  </si>
-  <si>
-    <t>De: 05/10/2024 a 05/10/2025</t>
-  </si>
-  <si>
-    <t>ANTONIO PAULINO DE BRITO</t>
-  </si>
-  <si>
-    <t>R$ 1.121,71</t>
-  </si>
-  <si>
-    <t>R$ 1.204,49</t>
-  </si>
-  <si>
     <t>507449 - SOUZA E RODRIGUES CORRETORA DE S</t>
   </si>
   <si>
     <t>492495 - T &amp; E CORRETORA DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>MUNDO ICE COMERCIO DE SORVETES LTDA</t>
-  </si>
-  <si>
-    <t>R$ 276,32</t>
-  </si>
-  <si>
-    <t>R$ 296,67</t>
-  </si>
-  <si>
     <t>486554 - TONAREC CORRETORA DE SEGUROS LTD</t>
   </si>
   <si>
-    <t>110289</t>
-  </si>
-  <si>
-    <t>GABRIEL RODRIGUES DE ALMEIDA MOURA</t>
-  </si>
-  <si>
-    <t>R$ 1.360,66</t>
-  </si>
-  <si>
-    <t>R$ 1.461,07</t>
-  </si>
-  <si>
     <t>498759 - V &amp; B PRADO CORRETORA DE SEGUROS</t>
   </si>
   <si>
-    <t>18155</t>
-  </si>
-  <si>
-    <t>LEANDRO JUVENAL DOS SANTOS</t>
-  </si>
-  <si>
-    <t>R$ 111,69</t>
-  </si>
-  <si>
-    <t>R$ 119,92</t>
-  </si>
-  <si>
     <t>440531 - VALE MUNDIAL CORRETORA DE SEG.</t>
   </si>
   <si>
-    <t>110209</t>
-  </si>
-  <si>
-    <t>De: 22/09/2024 a 22/09/2025</t>
-  </si>
-  <si>
-    <t>DAVID ULISSES DE SOUZA</t>
-  </si>
-  <si>
-    <t>R$ 1.708,19</t>
-  </si>
-  <si>
-    <t>R$ 1.834,25</t>
-  </si>
-  <si>
     <t>492247 - VALE SEG CORRETORA DE SEGUROS</t>
   </si>
   <si>
     <t>410606 - VENCENDO MEU SEGURO COR SEGS LTD</t>
   </si>
   <si>
-    <t>3396</t>
-  </si>
-  <si>
-    <t>De: 29/09/2024 a 29/09/2025</t>
-  </si>
-  <si>
-    <t>SCUDERIA GWR AUTOMOTIVE SERVICE</t>
-  </si>
-  <si>
-    <t>R$ 2.892,60</t>
-  </si>
-  <si>
-    <t>R$ 3.106,04</t>
-  </si>
-  <si>
     <t>403377 - VIA EXATA COR.DE SEGUROS LTDA</t>
   </si>
   <si>
-    <t>110218</t>
-  </si>
-  <si>
-    <t>AMENY PIERANGELLI VELLOSO DE ALCANTARA</t>
-  </si>
-  <si>
-    <t>R$ 2.222,94</t>
-  </si>
-  <si>
-    <t>R$ 2.386,99</t>
+    <t>111118</t>
+  </si>
+  <si>
+    <t>De: 24/10/2024 a 24/10/2025</t>
+  </si>
+  <si>
+    <t>RICARDO ASATO</t>
+  </si>
+  <si>
+    <t>R$ 4.930,03</t>
+  </si>
+  <si>
+    <t>R$ 5.293,86</t>
   </si>
   <si>
     <t>443746 - VILA NOVA CORRETORA DE SEGUROS</t>
+  </si>
+  <si>
+    <t>111133</t>
+  </si>
+  <si>
+    <t>De: 04/11/2024 a 04/11/2025</t>
+  </si>
+  <si>
+    <t>TATIANE CORTE CARDOSO</t>
+  </si>
+  <si>
+    <t>R$ 1.046,39</t>
+  </si>
+  <si>
+    <t>R$ 1.123,61</t>
   </si>
   <si>
     <t>503672 - ZION CORRETORA DE SEGUROS LTDA</t>
@@ -815,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -935,96 +614,96 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
@@ -1042,45 +721,45 @@
         <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -1098,45 +777,45 @@
         <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -1154,45 +833,45 @@
         <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
@@ -1210,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1266,7 +945,7 @@
         <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1322,45 +1001,45 @@
         <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -1378,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1434,45 +1113,45 @@
         <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>29</v>
@@ -1490,45 +1169,45 @@
         <v>33</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
@@ -1546,63 +1225,63 @@
         <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
         <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1658,45 +1337,45 @@
         <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
@@ -1714,45 +1393,45 @@
         <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -1770,45 +1449,45 @@
         <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
         <v>29</v>
@@ -1826,45 +1505,45 @@
         <v>33</v>
       </c>
       <c r="R18" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
         <v>29</v>
@@ -1882,45 +1561,45 @@
         <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
@@ -1938,45 +1617,45 @@
         <v>33</v>
       </c>
       <c r="R20" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
@@ -1994,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="R21" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -2002,10 +1681,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -2014,25 +1693,25 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
         <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="M22" t="s">
         <v>29</v>
@@ -2050,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="R22" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -2106,45 +1785,45 @@
         <v>33</v>
       </c>
       <c r="R23" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
@@ -2162,45 +1841,45 @@
         <v>33</v>
       </c>
       <c r="R24" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
@@ -2218,7 +1897,7 @@
         <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -2229,34 +1908,34 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
         <v>29</v>
@@ -2274,7 +1953,7 @@
         <v>33</v>
       </c>
       <c r="R26" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -2282,37 +1961,37 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="M27" t="s">
         <v>29</v>
@@ -2330,45 +2009,45 @@
         <v>33</v>
       </c>
       <c r="R27" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
@@ -2386,45 +2065,45 @@
         <v>33</v>
       </c>
       <c r="R28" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
@@ -2442,7 +2121,7 @@
         <v>33</v>
       </c>
       <c r="R29" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -2450,37 +2129,37 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
         <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="M30" t="s">
         <v>29</v>
@@ -2498,45 +2177,45 @@
         <v>33</v>
       </c>
       <c r="R30" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
@@ -2554,45 +2233,45 @@
         <v>33</v>
       </c>
       <c r="R31" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="M32" t="s">
         <v>29</v>
@@ -2610,7 +2289,7 @@
         <v>33</v>
       </c>
       <c r="R32" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -2618,37 +2297,37 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s">
         <v>29</v>
@@ -2666,7 +2345,7 @@
         <v>33</v>
       </c>
       <c r="R33" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -2674,37 +2353,37 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="M34" t="s">
         <v>29</v>
@@ -2722,45 +2401,45 @@
         <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s">
         <v>29</v>
@@ -2778,45 +2457,45 @@
         <v>33</v>
       </c>
       <c r="R35" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M36" t="s">
         <v>29</v>
@@ -2834,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -2890,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="R37" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -2946,7 +2625,7 @@
         <v>33</v>
       </c>
       <c r="R38" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -3002,45 +2681,45 @@
         <v>33</v>
       </c>
       <c r="R39" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="M40" t="s">
         <v>29</v>
@@ -3058,7 +2737,7 @@
         <v>33</v>
       </c>
       <c r="R40" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -3114,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="R41" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -3170,7 +2849,7 @@
         <v>33</v>
       </c>
       <c r="R42" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -3226,7 +2905,7 @@
         <v>33</v>
       </c>
       <c r="R43" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -3282,45 +2961,45 @@
         <v>33</v>
       </c>
       <c r="R44" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="M45" t="s">
         <v>29</v>
@@ -3338,45 +3017,45 @@
         <v>33</v>
       </c>
       <c r="R45" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="L46" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="M46" t="s">
         <v>29</v>
@@ -3394,7 +3073,7 @@
         <v>33</v>
       </c>
       <c r="R46" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -3450,45 +3129,45 @@
         <v>33</v>
       </c>
       <c r="R47" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K48" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="M48" t="s">
         <v>29</v>
@@ -3506,7 +3185,7 @@
         <v>33</v>
       </c>
       <c r="R48" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -3562,45 +3241,45 @@
         <v>33</v>
       </c>
       <c r="R49" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M50" t="s">
         <v>29</v>
@@ -3618,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="R50" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -3674,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="R51" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
@@ -3730,7 +3409,7 @@
         <v>33</v>
       </c>
       <c r="R52" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
@@ -3786,45 +3465,45 @@
         <v>33</v>
       </c>
       <c r="R53" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
         <v>29</v>
@@ -3842,45 +3521,45 @@
         <v>33</v>
       </c>
       <c r="R54" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M55" t="s">
         <v>29</v>
@@ -3898,45 +3577,45 @@
         <v>33</v>
       </c>
       <c r="R55" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M56" t="s">
         <v>29</v>
@@ -3954,45 +3633,45 @@
         <v>33</v>
       </c>
       <c r="R56" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="M57" t="s">
         <v>29</v>
@@ -4010,45 +3689,45 @@
         <v>33</v>
       </c>
       <c r="R57" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="L58" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="M58" t="s">
         <v>29</v>
@@ -4066,45 +3745,45 @@
         <v>33</v>
       </c>
       <c r="R58" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="M59" t="s">
         <v>29</v>
@@ -4122,45 +3801,45 @@
         <v>33</v>
       </c>
       <c r="R59" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M60" t="s">
         <v>29</v>
@@ -4178,7 +3857,7 @@
         <v>33</v>
       </c>
       <c r="R60" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -4234,7 +3913,7 @@
         <v>33</v>
       </c>
       <c r="R61" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
@@ -4290,45 +3969,45 @@
         <v>33</v>
       </c>
       <c r="R62" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="M63" t="s">
         <v>29</v>
@@ -4346,45 +4025,45 @@
         <v>33</v>
       </c>
       <c r="R63" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="M64" t="s">
         <v>29</v>
@@ -4402,45 +4081,45 @@
         <v>33</v>
       </c>
       <c r="R64" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="M65" t="s">
         <v>29</v>
@@ -4458,7 +4137,119 @@
         <v>33</v>
       </c>
       <c r="R65" t="s">
-        <v>252</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" t="s">
+        <v>30</v>
+      </c>
+      <c r="O66" t="s">
+        <v>31</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O67" t="s">
+        <v>31</v>
+      </c>
+      <c r="P67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
